--- a/用例数据/沪权/普通平仓/清算结果.xlsx
+++ b/用例数据/沪权/普通平仓/清算结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="stkoptionsettlement" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <sheet name="futurepositiondetail" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">futuretradinglog!$A$1:$CX$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stkoptionsettlement!$A$1:$BH$1</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="388">
   <si>
     <t>RECKONINGTIME</t>
   </si>
@@ -694,18 +693,12 @@
     <t>PREMIUM</t>
   </si>
   <si>
-    <t>30050027</t>
-  </si>
-  <si>
     <t>208_002_035</t>
   </si>
   <si>
     <t>00</t>
   </si>
   <si>
-    <t>20210110160138</t>
-  </si>
-  <si>
     <t>000001</t>
   </si>
   <si>
@@ -730,9 +723,6 @@
     <t>705.230</t>
   </si>
   <si>
-    <t>5555721.350</t>
-  </si>
-  <si>
     <t>5.770</t>
   </si>
   <si>
@@ -781,9 +771,6 @@
     <t>1.570</t>
   </si>
   <si>
-    <t>30050028</t>
-  </si>
-  <si>
     <t>50ETF沽3月3900</t>
   </si>
   <si>
@@ -799,9 +786,6 @@
     <t>5162.430</t>
   </si>
   <si>
-    <t>5560883.780</t>
-  </si>
-  <si>
     <t>-104837.570000</t>
   </si>
   <si>
@@ -817,9 +801,6 @@
     <t>5164.00</t>
   </si>
   <si>
-    <t>30050029</t>
-  </si>
-  <si>
     <t>208_001_035</t>
   </si>
   <si>
@@ -838,9 +819,6 @@
     <t>-3393.600</t>
   </si>
   <si>
-    <t>5557490.180</t>
-  </si>
-  <si>
     <t>3.600</t>
   </si>
   <si>
@@ -865,9 +843,6 @@
     <t>1.500</t>
   </si>
   <si>
-    <t>30050030</t>
-  </si>
-  <si>
     <t>50ETF购3月3000</t>
   </si>
   <si>
@@ -883,9 +858,6 @@
     <t>-4330.100</t>
   </si>
   <si>
-    <t>5553160.080</t>
-  </si>
-  <si>
     <t>3.100</t>
   </si>
   <si>
@@ -904,9 +876,6 @@
     <t>1.600</t>
   </si>
   <si>
-    <t>30050031</t>
-  </si>
-  <si>
     <t>208_001_038</t>
   </si>
   <si>
@@ -922,24 +891,6 @@
     <t>-200.00</t>
   </si>
   <si>
-    <t>30050032</t>
-  </si>
-  <si>
-    <t>10002845</t>
-  </si>
-  <si>
-    <t>300ETF沽11月4600</t>
-  </si>
-  <si>
-    <t>0.0455</t>
-  </si>
-  <si>
-    <t>11849.200</t>
-  </si>
-  <si>
-    <t>910.00</t>
-  </si>
-  <si>
     <t>SETTLEGRP</t>
   </si>
   <si>
@@ -1118,10 +1069,6 @@
   </si>
   <si>
     <t>20201123161232</t>
-  </si>
-  <si>
-    <t>208_001_035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A117212005</t>
@@ -1150,21 +1097,12 @@
     <t>YDEXERCISEQTY</t>
   </si>
   <si>
-    <t>20221216000000</t>
-  </si>
-  <si>
     <t>000117212005</t>
   </si>
   <si>
-    <t>46607.90</t>
-  </si>
-  <si>
     <t>5.00000000</t>
   </si>
   <si>
-    <t>-104836.00</t>
-  </si>
-  <si>
     <t>-5164.00</t>
   </si>
   <si>
@@ -1174,18 +1112,6 @@
     <t>104836.00</t>
   </si>
   <si>
-    <t>115671.50</t>
-  </si>
-  <si>
-    <t>-119293.20</t>
-  </si>
-  <si>
-    <t>4.20</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
     <t>5.0000</t>
   </si>
   <si>
@@ -1195,9 +1121,6 @@
     <t>20201123161725</t>
   </si>
   <si>
-    <t>2.10</t>
-  </si>
-  <si>
     <t>11.0000</t>
   </si>
   <si>
@@ -1208,6 +1131,66 @@
   </si>
   <si>
     <t>20201123161637</t>
+  </si>
+  <si>
+    <t>DIFFCOMMISION</t>
+  </si>
+  <si>
+    <t>30000670</t>
+  </si>
+  <si>
+    <t>20230201235959</t>
+  </si>
+  <si>
+    <t>20230202110346</t>
+  </si>
+  <si>
+    <t>20230201000000</t>
+  </si>
+  <si>
+    <t>998549736.120</t>
+  </si>
+  <si>
+    <t>30000671</t>
+  </si>
+  <si>
+    <t>30000672</t>
+  </si>
+  <si>
+    <t>30000673</t>
+  </si>
+  <si>
+    <t>30000842</t>
+  </si>
+  <si>
+    <t>20230202110347</t>
+  </si>
+  <si>
+    <t>998791577.200</t>
+  </si>
+  <si>
+    <t>46606.40</t>
+  </si>
+  <si>
+    <t>-104837.57</t>
+  </si>
+  <si>
+    <t>115669.90</t>
+  </si>
+  <si>
+    <t>-119294.77</t>
+  </si>
+  <si>
+    <t>5.77</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>1.57</t>
   </si>
 </sst>
 </file>
@@ -1563,63 +1546,63 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1801,7 +1784,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
@@ -1833,7 +1816,7 @@
         <v>68</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>70</v>
@@ -1959,7 +1942,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -1979,7 +1962,7 @@
         <v>65</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>66</v>
@@ -1991,7 +1974,7 @@
         <v>97</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>70</v>
@@ -2117,7 +2100,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
@@ -2149,7 +2132,7 @@
         <v>107</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>109</v>
@@ -2275,7 +2258,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
@@ -2307,7 +2290,7 @@
         <v>118</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>109</v>
@@ -2433,7 +2416,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>61</v>
       </c>
@@ -2561,7 +2544,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
@@ -2689,7 +2672,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
@@ -2817,7 +2800,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
@@ -2945,18 +2928,18 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="A1:BH1"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2967,22 +2950,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CX20"/>
+  <dimension ref="A1:CY11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -3289,43 +3273,46 @@
       <c r="CX1" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="CY1" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
-    <row r="2" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>226</v>
+        <v>370</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>226</v>
+        <v>371</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>97</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>63</v>
+        <v>356</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>67</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>64</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>63</v>
+        <v>356</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>67</v>
@@ -3337,13 +3324,13 @@
         <v>65</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>98</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>72</v>
@@ -3352,10 +3339,10 @@
         <v>70</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>102</v>
@@ -3364,28 +3351,28 @@
         <v>60</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>62</v>
+        <v>372</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>85</v>
@@ -3394,22 +3381,22 @@
         <v>85</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>95</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>60</v>
@@ -3421,28 +3408,28 @@
         <v>77</v>
       </c>
       <c r="AT2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BC2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="AU2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="BE2" s="1" t="s">
         <v>85</v>
@@ -3454,46 +3441,46 @@
         <v>84</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BK2" s="1" t="s">
         <v>60</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="BM2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BO2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BS2" s="1" t="s">
         <v>77</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BW2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="BX2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="BY2" s="1" t="s">
         <v>85</v>
@@ -3502,13 +3489,13 @@
         <v>85</v>
       </c>
       <c r="CC2" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="CD2" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="CE2" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="CH2" s="1" t="s">
         <v>89</v>
@@ -3523,7 +3510,7 @@
         <v>77</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="CT2" s="1" t="s">
         <v>77</v>
@@ -3532,51 +3519,54 @@
         <v>95</v>
       </c>
       <c r="CV2" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="CW2" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="CX2" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="CY2" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="3" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>252</v>
+        <v>374</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>226</v>
+        <v>370</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>226</v>
+        <v>371</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>63</v>
+        <v>356</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>67</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>64</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>63</v>
+        <v>356</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>67</v>
@@ -3588,13 +3578,13 @@
         <v>65</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>69</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>72</v>
@@ -3603,10 +3593,10 @@
         <v>70</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>82</v>
@@ -3615,28 +3605,28 @@
         <v>60</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>62</v>
+        <v>372</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>258</v>
+        <v>373</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AI3" s="1" t="s">
         <v>85</v>
@@ -3645,22 +3635,22 @@
         <v>85</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>95</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>60</v>
@@ -3672,7 +3662,7 @@
         <v>77</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AU3" s="1" t="s">
         <v>77</v>
@@ -3681,19 +3671,19 @@
         <v>77</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="BE3" s="1" t="s">
         <v>85</v>
@@ -3705,46 +3695,46 @@
         <v>84</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BK3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="BM3" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BO3" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BS3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="BX3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="BY3" s="1" t="s">
         <v>85</v>
@@ -3753,13 +3743,13 @@
         <v>85</v>
       </c>
       <c r="CC3" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="CD3" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="CE3" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="CH3" s="1" t="s">
         <v>89</v>
@@ -3774,7 +3764,7 @@
         <v>77</v>
       </c>
       <c r="CS3" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="CT3" s="1" t="s">
         <v>77</v>
@@ -3786,48 +3776,51 @@
         <v>85</v>
       </c>
       <c r="CW3" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="CX3" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="CY3" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="4" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>226</v>
+        <v>370</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>226</v>
+        <v>371</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>107</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>63</v>
+        <v>356</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>67</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>64</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>63</v>
+        <v>356</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>67</v>
@@ -3839,13 +3832,13 @@
         <v>65</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>108</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>72</v>
@@ -3854,10 +3847,10 @@
         <v>109</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>113</v>
@@ -3866,28 +3859,28 @@
         <v>60</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>129</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>62</v>
+        <v>372</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>271</v>
+        <v>373</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="AI4" s="1" t="s">
         <v>85</v>
@@ -3896,22 +3889,22 @@
         <v>85</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>95</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AQ4" s="1" t="s">
         <v>60</v>
@@ -3923,7 +3916,7 @@
         <v>77</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AU4" s="1" t="s">
         <v>77</v>
@@ -3932,19 +3925,19 @@
         <v>77</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="BE4" s="1" t="s">
         <v>85</v>
@@ -3956,46 +3949,46 @@
         <v>84</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BK4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="BM4" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BO4" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BS4" s="1" t="s">
         <v>77</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BW4" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="BX4" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="BY4" s="1" t="s">
         <v>85</v>
@@ -4004,13 +3997,13 @@
         <v>85</v>
       </c>
       <c r="CC4" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="CD4" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="CE4" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="CH4" s="1" t="s">
         <v>89</v>
@@ -4025,7 +4018,7 @@
         <v>77</v>
       </c>
       <c r="CS4" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="CT4" s="1" t="s">
         <v>77</v>
@@ -4034,51 +4027,54 @@
         <v>95</v>
       </c>
       <c r="CV4" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="CW4" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="CX4" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="CY4" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="5" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>280</v>
+        <v>376</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>365</v>
+        <v>259</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>226</v>
+        <v>370</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>226</v>
+        <v>371</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>118</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>63</v>
+        <v>356</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>63</v>
+        <v>356</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>67</v>
@@ -4090,13 +4086,13 @@
         <v>65</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>119</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>72</v>
@@ -4105,10 +4101,10 @@
         <v>109</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>123</v>
@@ -4117,28 +4113,28 @@
         <v>60</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>136</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>62</v>
+        <v>372</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>286</v>
+        <v>373</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="AI5" s="1" t="s">
         <v>85</v>
@@ -4147,22 +4143,22 @@
         <v>85</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AM5" s="1" t="s">
         <v>95</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AQ5" s="1" t="s">
         <v>60</v>
@@ -4174,7 +4170,7 @@
         <v>77</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AU5" s="1" t="s">
         <v>77</v>
@@ -4183,19 +4179,19 @@
         <v>77</v>
       </c>
       <c r="AY5" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="BD5" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="BE5" s="1" t="s">
         <v>85</v>
@@ -4207,46 +4203,46 @@
         <v>84</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BK5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="BM5" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BO5" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BQ5" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BS5" s="1" t="s">
         <v>77</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BW5" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="BX5" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="BY5" s="1" t="s">
         <v>85</v>
@@ -4255,13 +4251,13 @@
         <v>85</v>
       </c>
       <c r="CC5" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="CD5" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="CE5" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="CH5" s="1" t="s">
         <v>89</v>
@@ -4276,7 +4272,7 @@
         <v>77</v>
       </c>
       <c r="CS5" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="CT5" s="1" t="s">
         <v>77</v>
@@ -4285,48 +4281,51 @@
         <v>95</v>
       </c>
       <c r="CV5" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="CW5" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="CX5" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="CY5" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="6" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>356</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>67</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>64</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>63</v>
+        <v>356</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>67</v>
@@ -4338,13 +4337,13 @@
         <v>65</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>119</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>72</v>
@@ -4353,16 +4352,16 @@
         <v>70</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>96</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>85</v>
@@ -4374,7 +4373,7 @@
         <v>85</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>286</v>
+        <v>379</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>77</v>
@@ -4386,22 +4385,22 @@
         <v>85</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AQ6" s="1" t="s">
         <v>60</v>
@@ -4413,7 +4412,7 @@
         <v>77</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AU6" s="1" t="s">
         <v>77</v>
@@ -4422,13 +4421,13 @@
         <v>77</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>77</v>
@@ -4446,46 +4445,46 @@
         <v>84</v>
       </c>
       <c r="BH6" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BI6" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BK6" s="1" t="s">
         <v>60</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="BM6" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BO6" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BQ6" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BR6" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BS6" s="1" t="s">
         <v>77</v>
       </c>
       <c r="BV6" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BW6" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="BX6" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="BY6" s="1" t="s">
         <v>85</v>
@@ -4494,13 +4493,13 @@
         <v>85</v>
       </c>
       <c r="CC6" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="CD6" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="CE6" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="CH6" s="1" t="s">
         <v>89</v>
@@ -4515,7 +4514,7 @@
         <v>77</v>
       </c>
       <c r="CS6" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="CT6" s="1" t="s">
         <v>77</v>
@@ -4529,258 +4528,16 @@
       <c r="CX6" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="CY6" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="7" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BD7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BE7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BF7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BH7" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="BI7" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="BK7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BL7" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BM7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN7" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="BO7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BP7" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="BQ7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BR7" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="BS7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BV7" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="BW7" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BX7" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BY7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BZ7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CC7" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="CD7" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="CE7" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="CH7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CI7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CK7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CS7" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="CT7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CV7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CW7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CX7" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <autoFilter ref="A1:CX1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4788,15 +4545,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD17"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
@@ -4831,13 +4592,13 @@
         <v>151</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>10</v>
@@ -4852,37 +4613,37 @@
         <v>167</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>154</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>164</v>
@@ -4894,81 +4655,81 @@
         <v>153</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>183</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="BD1" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>372</v>
-      </c>
-    </row>
-    <row r="2" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>64</v>
@@ -4977,16 +4738,16 @@
         <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>65</v>
@@ -4998,25 +4759,25 @@
         <v>65</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>108</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>60</v>
@@ -5040,52 +4801,52 @@
         <v>77</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>77</v>
@@ -5103,22 +4864,22 @@
         <v>77</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="BB2" s="1" t="s">
         <v>77</v>
@@ -5130,9 +4891,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>64</v>
@@ -5141,16 +4902,16 @@
         <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>65</v>
@@ -5162,25 +4923,25 @@
         <v>65</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>69</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>109</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>60</v>
@@ -5204,52 +4965,52 @@
         <v>77</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>84</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="AL3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AN3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>77</v>
@@ -5267,22 +5028,22 @@
         <v>77</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AW3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="BB3" s="1" t="s">
         <v>77</v>
@@ -5294,9 +5055,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>64</v>
@@ -5305,16 +5066,16 @@
         <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>65</v>
@@ -5326,25 +5087,25 @@
         <v>65</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>119</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>70</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>106</v>
@@ -5368,58 +5129,58 @@
         <v>77</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>84</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AF4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI4" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="AG4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="AJ4" s="1" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="AL4" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="AN4" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AQ4" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="AS4" s="1" t="s">
         <v>77</v>
@@ -5431,22 +5192,22 @@
         <v>77</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AW4" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="BB4" s="1" t="s">
         <v>77</v>
@@ -5458,9 +5219,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>64</v>
@@ -5469,16 +5230,16 @@
         <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>65</v>
@@ -5490,25 +5251,25 @@
         <v>65</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>98</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>109</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>106</v>
@@ -5532,58 +5293,58 @@
         <v>77</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>84</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AG5" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="AL5" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AN5" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AQ5" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="AS5" s="1" t="s">
         <v>77</v>
@@ -5595,22 +5356,22 @@
         <v>77</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AW5" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AY5" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="BA5" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="BB5" s="1" t="s">
         <v>77</v>
@@ -5622,18 +5383,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5644,13 +5400,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
@@ -5703,7 +5459,7 @@
         <v>167</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>13</v>
@@ -5715,72 +5471,72 @@
         <v>206</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>164</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>64</v>
@@ -5795,31 +5551,31 @@
         <v>98</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>106</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>109</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>72</v>
@@ -5828,10 +5584,10 @@
         <v>77</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>96</v>
@@ -5855,42 +5611,42 @@
         <v>77</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>64</v>
@@ -5905,31 +5661,31 @@
         <v>98</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>106</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>109</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>72</v>
@@ -5938,10 +5694,10 @@
         <v>77</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>96</v>
@@ -5950,13 +5706,13 @@
         <v>60</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>102</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>60</v>
@@ -5965,42 +5721,42 @@
         <v>77</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>64</v>
@@ -6015,31 +5771,31 @@
         <v>119</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>106</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>70</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>72</v>
@@ -6048,10 +5804,10 @@
         <v>77</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>96</v>
@@ -6075,42 +5831,42 @@
         <v>77</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="AG4" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>64</v>
@@ -6125,31 +5881,31 @@
         <v>119</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>106</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>70</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>72</v>
@@ -6158,10 +5914,10 @@
         <v>77</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>96</v>
@@ -6170,13 +5926,13 @@
         <v>60</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AA5" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>60</v>
@@ -6185,42 +5941,42 @@
         <v>77</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="AG5" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>64</v>
@@ -6235,31 +5991,31 @@
         <v>108</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>60</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>70</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>72</v>
@@ -6268,10 +6024,10 @@
         <v>77</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>77</v>
@@ -6280,13 +6036,13 @@
         <v>60</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AA6" s="1" t="s">
         <v>113</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>60</v>
@@ -6295,42 +6051,42 @@
         <v>77</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="AG6" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>64</v>
@@ -6345,31 +6101,31 @@
         <v>69</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>109</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>72</v>
@@ -6378,10 +6134,10 @@
         <v>77</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>77</v>
@@ -6390,13 +6146,13 @@
         <v>60</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AA7" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>60</v>
@@ -6405,32 +6161,32 @@
         <v>77</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="AG7" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>238</v>
+        <v>387</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6445,9 +6201,9 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6479,13 +6235,13 @@
         <v>151</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>10</v>
@@ -6500,37 +6256,37 @@
         <v>167</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>154</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>164</v>
@@ -6542,79 +6298,79 @@
         <v>153</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>183</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -6622,16 +6378,16 @@
         <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>65</v>
@@ -6643,25 +6399,25 @@
         <v>65</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>98</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>109</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>96</v>
@@ -6685,58 +6441,58 @@
         <v>77</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>77</v>
@@ -6748,22 +6504,22 @@
         <v>77</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AV2" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>77</v>
@@ -6775,7 +6531,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -6783,16 +6539,16 @@
         <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>65</v>
@@ -6804,25 +6560,25 @@
         <v>65</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>119</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>96</v>
@@ -6846,58 +6602,58 @@
         <v>77</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>77</v>
@@ -6909,22 +6665,22 @@
         <v>77</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AV3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>77</v>
@@ -6936,23 +6692,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6963,16 +6719,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7022,7 +6778,7 @@
         <v>167</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>13</v>
@@ -7034,69 +6790,69 @@
         <v>206</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>164</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>64</v>
@@ -7111,31 +6867,31 @@
         <v>98</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>106</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>109</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>72</v>
@@ -7144,10 +6900,10 @@
         <v>77</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>96</v>
@@ -7171,39 +6927,39 @@
         <v>77</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>64</v>
@@ -7218,31 +6974,31 @@
         <v>119</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>106</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>72</v>
@@ -7251,10 +7007,10 @@
         <v>77</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>96</v>
@@ -7278,45 +7034,45 @@
         <v>77</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AJ3" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/用例数据/沪权/普通平仓/清算结果.xlsx
+++ b/用例数据/沪权/普通平仓/清算结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stkoptionsettlement" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="390">
   <si>
     <t>RECKONINGTIME</t>
   </si>
@@ -994,9 +994,6 @@
   </si>
   <si>
     <t>12.00000000</t>
-  </si>
-  <si>
-    <t>-1.00</t>
   </si>
   <si>
     <t>-711.00</t>
@@ -1191,6 +1188,15 @@
   </si>
   <si>
     <t>1.57</t>
+  </si>
+  <si>
+    <t>-115673.00</t>
+  </si>
+  <si>
+    <t>20230224000000</t>
+  </si>
+  <si>
+    <t>-46610.00</t>
   </si>
 </sst>
 </file>
@@ -1816,7 +1822,7 @@
         <v>68</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>70</v>
@@ -1962,7 +1968,7 @@
         <v>65</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>66</v>
@@ -1974,7 +1980,7 @@
         <v>97</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>70</v>
@@ -2132,7 +2138,7 @@
         <v>107</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>109</v>
@@ -2290,7 +2296,7 @@
         <v>118</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>109</v>
@@ -3274,12 +3280,12 @@
         <v>59</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>223</v>
@@ -3288,10 +3294,10 @@
         <v>224</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>97</v>
@@ -3300,7 +3306,7 @@
         <v>225</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>67</v>
@@ -3312,7 +3318,7 @@
         <v>64</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>67</v>
@@ -3357,13 +3363,13 @@
         <v>99</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>232</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>77</v>
@@ -3533,7 +3539,7 @@
     </row>
     <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>223</v>
@@ -3542,10 +3548,10 @@
         <v>224</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>68</v>
@@ -3554,7 +3560,7 @@
         <v>225</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>67</v>
@@ -3566,7 +3572,7 @@
         <v>64</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>67</v>
@@ -3611,13 +3617,13 @@
         <v>71</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AD3" s="1" t="s">
         <v>253</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>77</v>
@@ -3787,7 +3793,7 @@
     </row>
     <row r="4" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>259</v>
@@ -3796,10 +3802,10 @@
         <v>224</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>107</v>
@@ -3808,7 +3814,7 @@
         <v>225</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>67</v>
@@ -3820,7 +3826,7 @@
         <v>64</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>67</v>
@@ -3865,13 +3871,13 @@
         <v>129</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AD4" s="1" t="s">
         <v>264</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>77</v>
@@ -4041,7 +4047,7 @@
     </row>
     <row r="5" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>259</v>
@@ -4050,10 +4056,10 @@
         <v>224</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>118</v>
@@ -4062,7 +4068,7 @@
         <v>225</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>67</v>
@@ -4074,7 +4080,7 @@
         <v>64</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>67</v>
@@ -4119,13 +4125,13 @@
         <v>136</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AD5" s="1" t="s">
         <v>277</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>77</v>
@@ -4295,7 +4301,7 @@
     </row>
     <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>284</v>
@@ -4304,16 +4310,16 @@
         <v>224</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>225</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>67</v>
@@ -4325,7 +4331,7 @@
         <v>64</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>67</v>
@@ -4373,7 +4379,7 @@
         <v>85</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>77</v>
@@ -4547,14 +4553,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -4721,15 +4727,15 @@
         <v>320</v>
       </c>
       <c r="BC1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>64</v>
@@ -4741,10 +4747,10 @@
         <v>225</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>224</v>
@@ -4813,7 +4819,7 @@
         <v>84</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>235</v>
@@ -4831,7 +4837,7 @@
         <v>270</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>77</v>
@@ -4876,7 +4882,7 @@
         <v>235</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>324</v>
+        <v>389</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>235</v>
@@ -4893,7 +4899,7 @@
     </row>
     <row r="3" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>64</v>
@@ -4905,10 +4911,10 @@
         <v>225</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>224</v>
@@ -4977,7 +4983,7 @@
         <v>84</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>235</v>
@@ -4992,10 +4998,10 @@
         <v>235</v>
       </c>
       <c r="AI3" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="AL3" s="1" t="s">
         <v>77</v>
@@ -5040,7 +5046,7 @@
         <v>235</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>235</v>
@@ -5057,7 +5063,7 @@
     </row>
     <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>64</v>
@@ -5069,10 +5075,10 @@
         <v>225</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>224</v>
@@ -5141,7 +5147,7 @@
         <v>84</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AE4" s="1" t="s">
         <v>235</v>
@@ -5204,7 +5210,7 @@
         <v>235</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>324</v>
+        <v>387</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>235</v>
@@ -5221,7 +5227,7 @@
     </row>
     <row r="5" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>64</v>
@@ -5233,10 +5239,10 @@
         <v>225</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>224</v>
@@ -5305,7 +5311,7 @@
         <v>84</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AE5" s="1" t="s">
         <v>235</v>
@@ -5320,7 +5326,7 @@
         <v>235</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AJ5" s="1" t="s">
         <v>323</v>
@@ -5368,7 +5374,7 @@
         <v>235</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>235</v>
@@ -5400,7 +5406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -5459,7 +5465,7 @@
         <v>167</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>13</v>
@@ -5471,49 +5477,49 @@
         <v>206</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AH1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>164</v>
@@ -5524,19 +5530,19 @@
     </row>
     <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>224</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>64</v>
@@ -5557,10 +5563,10 @@
         <v>106</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>242</v>
@@ -5569,7 +5575,7 @@
         <v>109</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>236</v>
@@ -5587,7 +5593,7 @@
         <v>240</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>96</v>
@@ -5611,13 +5617,13 @@
         <v>77</v>
       </c>
       <c r="AF2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>235</v>
@@ -5634,19 +5640,19 @@
     </row>
     <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>224</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>64</v>
@@ -5667,10 +5673,10 @@
         <v>106</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>242</v>
@@ -5679,7 +5685,7 @@
         <v>109</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>236</v>
@@ -5697,7 +5703,7 @@
         <v>240</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>96</v>
@@ -5706,7 +5712,7 @@
         <v>60</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>102</v>
@@ -5721,19 +5727,19 @@
         <v>77</v>
       </c>
       <c r="AF3" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH3" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AG3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="AI3" s="1" t="s">
         <v>235</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>89</v>
@@ -5744,19 +5750,19 @@
     </row>
     <row r="4" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>224</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>64</v>
@@ -5777,10 +5783,10 @@
         <v>106</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>280</v>
@@ -5789,7 +5795,7 @@
         <v>70</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>236</v>
@@ -5807,7 +5813,7 @@
         <v>240</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>96</v>
@@ -5831,13 +5837,13 @@
         <v>77</v>
       </c>
       <c r="AF4" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH4" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="AI4" s="1" t="s">
         <v>235</v>
@@ -5854,19 +5860,19 @@
     </row>
     <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>224</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>64</v>
@@ -5887,10 +5893,10 @@
         <v>106</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>280</v>
@@ -5899,7 +5905,7 @@
         <v>70</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>236</v>
@@ -5917,7 +5923,7 @@
         <v>240</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>96</v>
@@ -5926,7 +5932,7 @@
         <v>60</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AA5" s="1" t="s">
         <v>123</v>
@@ -5941,19 +5947,19 @@
         <v>77</v>
       </c>
       <c r="AF5" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH5" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AG5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="AI5" s="1" t="s">
         <v>235</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>89</v>
@@ -5964,19 +5970,19 @@
     </row>
     <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>224</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>64</v>
@@ -5997,10 +6003,10 @@
         <v>60</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>268</v>
@@ -6009,7 +6015,7 @@
         <v>70</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>236</v>
@@ -6027,7 +6033,7 @@
         <v>240</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>77</v>
@@ -6036,7 +6042,7 @@
         <v>60</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AA6" s="1" t="s">
         <v>113</v>
@@ -6051,19 +6057,19 @@
         <v>77</v>
       </c>
       <c r="AF6" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH6" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AG6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="AI6" s="1" t="s">
         <v>235</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>89</v>
@@ -6074,19 +6080,19 @@
     </row>
     <row r="7" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>224</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>64</v>
@@ -6107,10 +6113,10 @@
         <v>60</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>256</v>
@@ -6119,13 +6125,13 @@
         <v>109</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>236</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>72</v>
@@ -6137,7 +6143,7 @@
         <v>240</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>77</v>
@@ -6146,7 +6152,7 @@
         <v>60</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AA7" s="1" t="s">
         <v>82</v>
@@ -6161,19 +6167,19 @@
         <v>77</v>
       </c>
       <c r="AF7" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH7" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AG7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="AI7" s="1" t="s">
         <v>235</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>89</v>
@@ -6198,7 +6204,7 @@
   <dimension ref="A1:BC20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6364,10 +6370,10 @@
         <v>320</v>
       </c>
       <c r="BB1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -6381,10 +6387,10 @@
         <v>225</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>224</v>
@@ -6408,13 +6414,13 @@
         <v>227</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>236</v>
@@ -6444,10 +6450,10 @@
         <v>235</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>235</v>
+        <v>322</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>323</v>
@@ -6459,7 +6465,7 @@
         <v>235</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>77</v>
@@ -6477,7 +6483,7 @@
         <v>77</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>235</v>
+        <v>322</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>77</v>
@@ -6516,7 +6522,7 @@
         <v>235</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
       <c r="AZ2" s="1" t="s">
         <v>235</v>
@@ -6542,10 +6548,10 @@
         <v>225</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>224</v>
@@ -6569,13 +6575,13 @@
         <v>227</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>236</v>
@@ -6605,10 +6611,10 @@
         <v>235</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>322</v>
+        <v>235</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>323</v>
@@ -6620,7 +6626,7 @@
         <v>235</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>77</v>
@@ -6638,7 +6644,7 @@
         <v>77</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>322</v>
+        <v>235</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>77</v>
@@ -6677,7 +6683,7 @@
         <v>235</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AZ3" s="1" t="s">
         <v>235</v>
@@ -6778,7 +6784,7 @@
         <v>167</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>13</v>
@@ -6790,49 +6796,49 @@
         <v>206</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AG1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>164</v>
@@ -6843,16 +6849,16 @@
     </row>
     <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>64</v>
@@ -6873,10 +6879,10 @@
         <v>106</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>242</v>
@@ -6885,7 +6891,7 @@
         <v>109</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>236</v>
@@ -6903,7 +6909,7 @@
         <v>240</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>96</v>
@@ -6927,13 +6933,13 @@
         <v>77</v>
       </c>
       <c r="AE2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>235</v>
@@ -6950,16 +6956,16 @@
     </row>
     <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>64</v>
@@ -6980,10 +6986,10 @@
         <v>106</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>280</v>
@@ -6992,7 +6998,7 @@
         <v>70</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>236</v>
@@ -7010,7 +7016,7 @@
         <v>240</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>96</v>
@@ -7034,13 +7040,13 @@
         <v>77</v>
       </c>
       <c r="AE3" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG3" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="AH3" s="1" t="s">
         <v>235</v>
